--- a/mysite/dataset/answerfile_template.xlsx
+++ b/mysite/dataset/answerfile_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dosawasseungjun/projects/hongik-gpt/mysite/dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\hyseo\git\hongik-gpt\mysite\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16CB5B9-9E40-9C49-99D5-7FC503D40ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B5E5FC-9FE0-41AD-9807-8E4285D25A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13320" yWindow="0" windowWidth="12360" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51619,11 +51619,11 @@
   </sheetPr>
   <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A186" sqref="A186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.5" bestFit="1" customWidth="1"/>
@@ -54290,7 +54290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="274.5" customHeight="1">
+    <row r="185" spans="1:5" ht="118" customHeight="1">
       <c r="A185" s="3" t="s">
         <v>300</v>
       </c>
@@ -54305,7 +54305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="382.5" customHeight="1">
+    <row r="186" spans="1:5" ht="106" customHeight="1">
       <c r="A186" s="3" t="s">
         <v>300</v>
       </c>

--- a/mysite/dataset/answerfile_template.xlsx
+++ b/mysite/dataset/answerfile_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\hyseo\git\hongik-gpt\mysite\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dosawasseungjun/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B5E5FC-9FE0-41AD-9807-8E4285D25A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08164B00-076E-E145-8413-90547CC7E43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="0" windowWidth="12360" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="1000" windowWidth="20960" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="373">
   <si>
     <t>의도</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>학식</t>
-  </si>
-  <si>
-    <t>오늘 학식을 알려줘</t>
   </si>
   <si>
     <t xml:space="preserve">$today_year$년 $today_month$월 $today_day$일 학식입니다. &lt;br&gt;
@@ -65,9 +62,6 @@
     <t>오늘 저녁을 알려줘</t>
   </si>
   <si>
-    <t>오늘 학식 뭐나와</t>
-  </si>
-  <si>
     <t>오늘 교내 식당 메뉴</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
     <t>교직원 식당 메뉴 알려줘</t>
   </si>
   <si>
-    <t>조식 알려줘</t>
-  </si>
-  <si>
     <t>중식 알려줘</t>
   </si>
   <si>
@@ -87,18 +78,6 @@
   </si>
   <si>
     <t>오늘 식사 메뉴</t>
-  </si>
-  <si>
-    <t>학생 식당에 대해 알려줘</t>
-  </si>
-  <si>
-    <t>교직원 식당에 대해 알려줘</t>
-  </si>
-  <si>
-    <t>학생 식당 위치에 대해 알려줘</t>
-  </si>
-  <si>
-    <t>교직원 식당 위치를 알려줘</t>
   </si>
   <si>
     <t xml:space="preserve">"$today_year$년 $today_month$월 $today_day$일 학식입니다. &lt;br&gt;
@@ -118,32 +97,14 @@
     <t>연락처</t>
   </si>
   <si>
-    <t>연락처를 검색하고 싶어</t>
-  </si>
-  <si>
     <t>"연락처 검색"</t>
   </si>
   <si>
     <t>부서명, 교직원/교수님</t>
   </si>
   <si>
-    <t>교내 연락처 검색하고 싶어</t>
-  </si>
-  <si>
-    <t>컴퓨터공학과 번호 검색하고 싶어</t>
-  </si>
-  <si>
     <t xml:space="preserve">컴퓨터공학과 과사무실 연락처입니다.
 02 - </t>
-  </si>
-  <si>
-    <t>교수님 연락처 검색하고 싶어</t>
-  </si>
-  <si>
-    <t>사무실 번호 검색하고 싶어</t>
-  </si>
-  <si>
-    <t>전화번호 검색하고 싶어</t>
   </si>
   <si>
     <t>공지사항</t>
@@ -317,9 +278,6 @@
     <t>편의시설</t>
   </si>
   <si>
-    <t>학교 편의시설에 대한 정보를 알려줘</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -800,9 +758,6 @@
       </rPr>
       <t>기숙사 &lt;br&gt;</t>
     </r>
-  </si>
-  <si>
-    <t>학교 카페에 대한 정보를 알려줘</t>
   </si>
   <si>
     <r>
@@ -1289,9 +1244,6 @@
       </rPr>
       <t xml:space="preserve"> &lt;br&gt;</t>
     </r>
-  </si>
-  <si>
-    <t>학교 베이커리에 대한 정보를 알려줘</t>
   </si>
   <si>
     <r>
@@ -5036,9 +4988,6 @@
     </r>
   </si>
   <si>
-    <t>학교 편의점에 대해 알려줘</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -6369,9 +6318,6 @@
     </r>
   </si>
   <si>
-    <t>학교 서점에 대해 알려줘</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -6891,9 +6837,6 @@
       </rPr>
       <t xml:space="preserve"> &lt;br.</t>
     </r>
-  </si>
-  <si>
-    <t>학교 문구점에 대해 알려줘</t>
   </si>
   <si>
     <t>편의시설: 문구/화방(한가람문구) &lt;br&gt;
@@ -6910,9 +6853,6 @@
     <t>대학서적을 판매하는 곳에 대해 알려줘</t>
   </si>
   <si>
-    <t>학교 주차창에 대해 알려줘</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -8372,9 +8312,6 @@
     </r>
   </si>
   <si>
-    <t>원이약국에 대해 알려줘</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -11267,9 +11204,6 @@
     </r>
   </si>
   <si>
-    <t>학교 체육시설에 대해 알려줘</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -11664,9 +11598,6 @@
     </r>
   </si>
   <si>
-    <t>학교 농구장에 대해 알려줘</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -12925,9 +12856,6 @@
       </rPr>
       <t xml:space="preserve"> &lt;br&gt;</t>
     </r>
-  </si>
-  <si>
-    <t>학교 배구장에 대해 알려줘</t>
   </si>
   <si>
     <r>
@@ -13261,9 +13189,6 @@
     </r>
   </si>
   <si>
-    <t>학교 배드민턴장에 대해 알려줘</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -13710,9 +13635,6 @@
     </r>
   </si>
   <si>
-    <t>학교 체력단련실에 대해 알려줘</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -15888,9 +15810,6 @@
     </r>
   </si>
   <si>
-    <t>학교 검도장에 대해 알려줘</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -16639,9 +16558,6 @@
     </r>
   </si>
   <si>
-    <t>학교 태권도실에 대해 알려줘</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -18027,9 +17943,6 @@
     </r>
   </si>
   <si>
-    <t>학교 탁구장에 대해 알려줘</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -18341,9 +18254,6 @@
     </r>
   </si>
   <si>
-    <t>학교 체육관경기장에 대해 알려줘</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -19736,9 +19646,6 @@
       </rPr>
       <t xml:space="preserve"> &lt;br&gt;</t>
     </r>
-  </si>
-  <si>
-    <t>학교 대운동장에 대해 알려줘</t>
   </si>
   <si>
     <r>
@@ -21668,9 +21575,6 @@
     </r>
   </si>
   <si>
-    <t>학교 운동장기구실에 대해 알려줘</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -22741,9 +22645,6 @@
       </rPr>
       <t xml:space="preserve"> &lt;br&gt;</t>
     </r>
-  </si>
-  <si>
-    <t>학교 기숙사에 대해 알려줘</t>
   </si>
   <si>
     <r>
@@ -29980,9 +29881,6 @@
     </r>
   </si>
   <si>
-    <t>학교 박물관에 대해 알려줘</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -30517,9 +30415,6 @@
       </rPr>
       <t xml:space="preserve"> : 02-320-1322~4&lt;br&gt;</t>
     </r>
-  </si>
-  <si>
-    <t>학교 현대미술관에 대해 알려줘</t>
   </si>
   <si>
     <r>
@@ -32125,9 +32020,6 @@
   </si>
   <si>
     <t>학사일정에 대해 알려줘</t>
-  </si>
-  <si>
-    <t>"{해당}월에 대한 학사일정 출력"</t>
   </si>
   <si>
     <t>이번달 학사일정에 대해 알려줘</t>
@@ -32776,9 +32668,6 @@
     <t>학교 날씨</t>
   </si>
   <si>
-    <t>오늘, 지금 날씨에 대해 알려줘</t>
-  </si>
-  <si>
     <r>
       <t>$today_year$</t>
     </r>
@@ -33014,32 +32903,11 @@
       <t xml:space="preserve"> : $highest_tmp$ &lt;br&gt;
 </t>
     </r>
-  </si>
-  <si>
-    <t>오늘, 지금 학교 비 와?</t>
-  </si>
-  <si>
-    <t>오늘, 지금 학교 맑아?</t>
-  </si>
-  <si>
-    <t>오늘, 지금 학교 흐려?</t>
-  </si>
-  <si>
-    <t>오늘, 지금 학교 눈 와?</t>
-  </si>
-  <si>
-    <t>오늘 기온을 알려줘</t>
-  </si>
-  <si>
-    <t>오늘 날씨가 궁금해</t>
   </si>
   <si>
     <t>오늘 날씨 몇 도야?</t>
   </si>
   <si>
-    <t>내일 날씨에 대해 알려줘</t>
-  </si>
-  <si>
     <r>
       <t>$tomorrow_year$</t>
     </r>
@@ -33275,30 +33143,12 @@
       <t xml:space="preserve"> : $t_highest_tmp$ &lt;br&gt;
 </t>
     </r>
-  </si>
-  <si>
-    <t>내일 학교 비 와?</t>
-  </si>
-  <si>
-    <t>내일 학교 맑아?</t>
-  </si>
-  <si>
-    <t>내일 학교 흐려?</t>
-  </si>
-  <si>
-    <t>내일 학교 눈 와?</t>
   </si>
   <si>
     <t>내일 기온을 알려줘</t>
   </si>
   <si>
-    <t>내일 기온은 어때?</t>
-  </si>
-  <si>
     <t>학교 정보</t>
-  </si>
-  <si>
-    <t>학교에 대한 정보를 알려줘</t>
   </si>
   <si>
     <t>홍익대학교에 대한 어떤 정보를 알려드릴까요?</t>
@@ -33307,9 +33157,6 @@
     <t>마스코트, 총장님, 상징물, 교가, 교색, 연혁, 교육이념, 현재 현황</t>
   </si>
   <si>
-    <t>학교 마스코트는 누구야?</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -33444,17 +33291,11 @@
       </rPr>
       <t>. &gt;&lt;</t>
     </r>
-  </si>
-  <si>
-    <t>학교 마스코트에 대해 알려줘</t>
   </si>
   <si>
     <t>학교를 대표하는 캐릭터를 알려줘</t>
   </si>
   <si>
-    <t>학교 총장님이 누구야?</t>
-  </si>
-  <si>
     <r>
       <t>20</t>
     </r>
@@ -33658,9 +33499,6 @@
     <t>영원한 미소에 대해 알려줘</t>
   </si>
   <si>
-    <t>학교 교가에 대해 알려줘</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -34217,161 +34055,146 @@
       </rPr>
       <t>. &lt;br&gt;</t>
     </r>
-  </si>
-  <si>
-    <t>학교 교가는 뭐야?</t>
-  </si>
-  <si>
-    <t>우리학교의 교색이 뭐야</t>
   </si>
   <si>
     <t>홍익대학교의 교색은 파란색입니다.</t>
   </si>
   <si>
-    <t>학교의 교색이 뭐야</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>학교의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>역사는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;a href="https://www.hongik.ac.kr/kr/introduction/history.do"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>링크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>확인할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. &lt;br&gt; </t>
+    </r>
   </si>
   <si>
-    <t>학교 연혁에 대해 알려줘</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>학교의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>역사는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;a href="https://www.hongik.ac.kr/kr/introduction/history.do"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>링크</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/a&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>확인할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>있습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. &lt;br&gt; </t>
-    </r>
-  </si>
-  <si>
-    <t>학교 교육이념에 대해 알려줘</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -34716,12 +34539,6 @@
       </rPr>
       <t>. :) &lt;br&gt;</t>
     </r>
-  </si>
-  <si>
-    <t>학교 발전 목표를 알려줘</t>
-  </si>
-  <si>
-    <t>학교 현재 현황에 대해 알려줘</t>
   </si>
   <si>
     <t>졸업 요건</t>
@@ -35096,9 +34913,6 @@
     <t>T동 열람실 현황 알려줘</t>
   </si>
   <si>
-    <t>법학 도서관(R동) 열람실 현황에 대해 알려줘</t>
-  </si>
-  <si>
     <t>중앙도서관(H동) 열람실 현황에 대해 알려줘</t>
   </si>
   <si>
@@ -51104,7 +50918,2600 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오늘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알려줘</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오늘 학식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뭐야</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오늘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뭐나와</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 학식 메뉴 뭐야</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 조식(아침) 뭐야</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알려줘</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 중식(점심) 뭐야</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 석식(저녁) 뭐야</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오늘 식사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴 뭐야</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>연락처 검색</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교내</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연락처</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컴퓨터공학과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교수님</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번호 검색</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교수님</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연락처</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무실 연락처 검색</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사무실</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전화번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>편의시설</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 내 편의시설 목록은 다음과 같습니다. &lt;br&gt;
+&lt;학교 편의시설 목록&gt; &lt;br&gt;
+카페 &lt;br&gt;
+편의점 &lt;br&gt;
+서적/문구 &lt;br&gt;
+기타시설 &lt;br&gt;
+컴퓨터매장 &lt;br&gt;
+여행사 &lt;br&gt;
+은행 &lt;br&gt;
+약국 &lt;br&gt;외부식당 &lt;br&gt;
+출력센터 &lt;br&gt;
+사진관 &lt;br&gt;
+학생/교직원식당 &lt;br&gt;
+꽃집 &lt;br&gt;
+체육시설 &lt;br&gt;
+기숙사 &lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 편의시설에 대한 정보를 알려줘</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 카페에 대한 정보를 알려줘</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 베이커리에 대한 정보를 알려줘</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 편의점에 대해 알려줘</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 서점에 대해 알려줘</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 문구점에 대해 알려줘</t>
+  </si>
+  <si>
+    <t>주차장</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 주차창에 대해 알려줘</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>체육시설에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알려줘</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>농구장에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알려줘</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배구장에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알려줘</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 배드민턴장에 대해 알려줘</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 체력단련실에 대해 알려줘</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 검도장에 대해 알려줘</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 태권도실에 대해 알려줘</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 탁구장에 대해 알려줘</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 체육관경기장에 대해 알려줘</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 대운동장에 대해 알려줘</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 운동장기구실에 대해 알려줘</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기숙사에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알려줘</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>박물관에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알려줘</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현대미술관에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알려줘</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 일정에 대해 알려줘</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>몇 월 학사일정이 궁금하세요?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월,2월,3월,4월,5월,6월,7월,8월,9월,10월,11월,12월</t>
+  </si>
+  <si>
+    <t>날씨 어때</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 날씨 어때</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 날씨 알려줘</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오늘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오늘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맑아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오늘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>흐려</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오늘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>눈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오늘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기온을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알려줘</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오늘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날씨가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>궁금해</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날씨 알려줘</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맑아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>흐려</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>눈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기온은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어때</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>홍대 기본 상식에 대해 알려줘</t>
+  </si>
+  <si>
+    <t>학교에 대한 정보를 알려줘</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스코트는 누구야?</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스코트에 대해 알려줘</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>총장님에 대해 알려줘</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>총장님이 누구야?</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>교가에 대해 알려줘</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>교가가 뭐야</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 교가에 대해 알려줘</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>교색에 대해 알려줘</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>교색이 뭐야</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 교색에 대해 알려줘</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 연혁에 대해 알려줘</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>연혁에 대해 알려줘</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 교육이념에 대해 알려줘</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육이념에 대해 알려줘</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 발전 목표를 알려줘</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>발전 목표를 알려줘</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 현재 현황에 대해 알려줘</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 현황에 대해 알려줘</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>총장님은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양현석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>총장님입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동 열람실</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현황</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알려줘</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>법학</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도서관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>열람실</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현황에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알려줘</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>열람실</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현황</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알려줘</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>운영시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt; &lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>학관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) : 06:00 ~ 23:00 &lt;br&gt;
+T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 06:00 ~ 23:00 (1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>열람실은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>개방</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) &lt;br&gt;
+R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 06:00 ~ 23:00 &lt;br&gt;</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>운영시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt; &lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>학관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) : 06:00 ~ 23:00 &lt;br&gt;
+T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 06:00 ~ 23:00 (1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>열람실은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>개방</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) &lt;br&gt;
+R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 06:00 ~ 23:01 &lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>운영시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt; &lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>학관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) : 06:00 ~ 23:00 &lt;br&gt;
+T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 06:00 ~ 23:00 (1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>열람실은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>개방</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) &lt;br&gt;
+R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 06:00 ~ 23:02 &lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>학식</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오늘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학식을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알려줘</t>
+    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -51112,7 +53519,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51185,6 +53592,27 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="돋움체"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -51243,7 +53671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -51287,12 +53715,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -51312,6 +53734,43 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -51617,19 +54076,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E198"/>
+  <dimension ref="A1:E217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A186" sqref="A186"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1">
@@ -51649,519 +54108,517 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="303" customHeight="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" ht="21" customHeight="1">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="D2" s="4"/>
+      <c r="E2" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="303" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:5" ht="25" customHeight="1">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
+      <c r="B3" s="23" t="s">
+        <v>372</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="303" customHeight="1">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:5" ht="25" customHeight="1">
+      <c r="A4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
+      <c r="B4" s="23" t="s">
+        <v>285</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="207" customHeight="1">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:5" ht="25" customHeight="1">
+      <c r="A5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
+      <c r="B5" s="23" t="s">
+        <v>286</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="207" customHeight="1">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:5" ht="25" customHeight="1">
+      <c r="A6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
+      <c r="B6" s="23" t="s">
+        <v>287</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="207" customHeight="1">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:5" ht="25" customHeight="1">
+      <c r="A7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
+      <c r="B7" s="22" t="s">
+        <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="207" customHeight="1">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:5" ht="25" customHeight="1">
+      <c r="A8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
+      <c r="B8" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="207" customHeight="1">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:5" ht="25" customHeight="1">
+      <c r="A9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
+      <c r="B9" s="22" t="s">
+        <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="207" customHeight="1">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:5" ht="25" customHeight="1">
+      <c r="A10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
+      <c r="B10" s="24" t="s">
+        <v>288</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="207" customHeight="1">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:5" ht="25" customHeight="1">
+      <c r="A11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>16</v>
+      <c r="B11" s="22" t="s">
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="207" customHeight="1">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:5" ht="25" customHeight="1">
+      <c r="A12" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>17</v>
+      <c r="B12" s="22" t="s">
+        <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="207" customHeight="1">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:5" ht="25" customHeight="1">
+      <c r="A13" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>18</v>
+      <c r="B13" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="207" customHeight="1">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:5" ht="25" customHeight="1">
+      <c r="A14" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>19</v>
+      <c r="B14" s="24" t="s">
+        <v>289</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="207" customHeight="1">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:5" ht="25" customHeight="1">
+      <c r="A15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>20</v>
+      <c r="B15" s="23" t="s">
+        <v>290</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="207" customHeight="1">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:5" ht="25" customHeight="1">
+      <c r="A16" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>21</v>
+      <c r="B16" s="24" t="s">
+        <v>291</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="152.25" customHeight="1">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:5" ht="25" customHeight="1">
+      <c r="A17" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>22</v>
+      <c r="B17" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="25" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>27</v>
+      <c r="A18" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E18" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="25" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>27</v>
+      <c r="A19" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E19" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="25" customHeight="1">
-      <c r="A20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>29</v>
+      <c r="A20" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E20" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="25" customHeight="1">
-      <c r="A21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>27</v>
+      <c r="A21" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E21" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="25" customHeight="1">
-      <c r="A22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>32</v>
+      <c r="A22" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E22" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="25" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>33</v>
+      <c r="A23" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E23" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="25" customHeight="1">
-      <c r="A24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>34</v>
+      <c r="A24" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>296</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E24" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="25" customHeight="1">
-      <c r="A25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>35</v>
+      <c r="A25" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E25" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="25" customHeight="1">
-      <c r="A26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>35</v>
+      <c r="A26" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E26" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="25" customHeight="1">
-      <c r="A27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>35</v>
+      <c r="A27" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E27" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="25" customHeight="1">
-      <c r="A28" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>41</v>
+      <c r="A28" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E28" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="25" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>43</v>
+      <c r="A29" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E29" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="25" customHeight="1">
+      <c r="A30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="9">
+    <row r="31" spans="1:5" ht="25" customHeight="1">
+      <c r="A31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="9">
+    <row r="32" spans="1:5" ht="25" customHeight="1">
+      <c r="A32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A32" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="9">
+    <row r="33" spans="1:5" ht="25" customHeight="1">
+      <c r="A33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A33" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="9">
+    <row r="34" spans="1:5" ht="25" customHeight="1">
+      <c r="A34" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A34" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="9">
+    <row r="35" spans="1:5" ht="25" customHeight="1">
+      <c r="A35" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A35" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>56</v>
+    <row r="36" spans="1:5" ht="25" customHeight="1">
+      <c r="A36" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>305</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="9">
+        <v>28</v>
+      </c>
+      <c r="E36" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>58</v>
+      <c r="A37" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>306</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="9">
@@ -52169,14 +54626,14 @@
       </c>
     </row>
     <row r="38" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>60</v>
+      <c r="A38" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="9">
@@ -52184,14 +54641,14 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A39" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>62</v>
+      <c r="A39" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="9">
@@ -52199,14 +54656,14 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A40" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>64</v>
+      <c r="A40" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="9">
@@ -52214,14 +54671,14 @@
       </c>
     </row>
     <row r="41" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A41" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>66</v>
+      <c r="A41" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="9">
@@ -52229,14 +54686,14 @@
       </c>
     </row>
     <row r="42" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="9">
@@ -52244,14 +54701,14 @@
       </c>
     </row>
     <row r="43" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A43" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>69</v>
+      <c r="A43" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="9">
@@ -52259,14 +54716,14 @@
       </c>
     </row>
     <row r="44" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A44" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>71</v>
+      <c r="A44" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>42</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="9">
@@ -52274,14 +54731,14 @@
       </c>
     </row>
     <row r="45" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A45" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>72</v>
+      <c r="A45" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>307</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="9">
@@ -52289,14 +54746,14 @@
       </c>
     </row>
     <row r="46" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A46" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>74</v>
+      <c r="A46" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>45</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="9">
@@ -52304,14 +54761,14 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A47" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>76</v>
+      <c r="A47" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="9">
@@ -52319,14 +54776,14 @@
       </c>
     </row>
     <row r="48" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A48" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>78</v>
+      <c r="A48" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>308</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="9">
@@ -52334,14 +54791,14 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A49" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>81</v>
+      <c r="A49" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="9">
@@ -52349,14 +54806,14 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A50" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>83</v>
+      <c r="A50" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="9">
@@ -52364,14 +54821,14 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A51" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>84</v>
+      <c r="A51" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>52</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="9">
@@ -52379,14 +54836,14 @@
       </c>
     </row>
     <row r="52" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A52" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>86</v>
+      <c r="A52" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>310</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="9">
@@ -52394,14 +54851,14 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A53" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>88</v>
+      <c r="A53" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>311</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="9">
@@ -52409,14 +54866,14 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A54" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>90</v>
+      <c r="A54" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>54</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="9">
@@ -52424,14 +54881,14 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A55" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>92</v>
+      <c r="A55" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="9">
@@ -52439,14 +54896,14 @@
       </c>
     </row>
     <row r="56" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A56" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>94</v>
+      <c r="A56" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="9">
@@ -52454,14 +54911,14 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A57" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>96</v>
+      <c r="A57" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="9">
@@ -52469,14 +54926,14 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A58" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>98</v>
+      <c r="A58" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="9">
@@ -52484,14 +54941,14 @@
       </c>
     </row>
     <row r="59" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A59" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>100</v>
+      <c r="A59" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="9">
@@ -52499,14 +54956,14 @@
       </c>
     </row>
     <row r="60" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A60" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>102</v>
+      <c r="A60" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="9">
@@ -52514,14 +54971,14 @@
       </c>
     </row>
     <row r="61" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A61" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>104</v>
+      <c r="A61" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="9">
@@ -52529,14 +54986,14 @@
       </c>
     </row>
     <row r="62" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A62" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>106</v>
+      <c r="A62" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>312</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="9">
@@ -52544,14 +55001,14 @@
       </c>
     </row>
     <row r="63" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A63" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>108</v>
+      <c r="A63" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>313</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="9">
@@ -52559,14 +55016,14 @@
       </c>
     </row>
     <row r="64" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A64" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>110</v>
+      <c r="A64" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>314</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="9">
@@ -52574,14 +55031,14 @@
       </c>
     </row>
     <row r="65" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A65" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>112</v>
+      <c r="A65" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>315</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="9">
@@ -52589,14 +55046,14 @@
       </c>
     </row>
     <row r="66" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A66" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>114</v>
+      <c r="A66" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>316</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="9">
@@ -52604,14 +55061,14 @@
       </c>
     </row>
     <row r="67" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A67" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>116</v>
+      <c r="A67" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>317</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="9">
@@ -52619,14 +55076,14 @@
       </c>
     </row>
     <row r="68" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A68" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>118</v>
+      <c r="A68" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="9">
@@ -52634,1844 +55091,2126 @@
       </c>
     </row>
     <row r="69" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A69" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>120</v>
+      <c r="A69" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>319</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="8" customFormat="1" ht="140" customHeight="1">
-      <c r="A70" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>122</v>
+    <row r="70" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
+      <c r="A70" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>320</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="8" customFormat="1" ht="356" customHeight="1">
-      <c r="A71" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>124</v>
+    <row r="71" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
+      <c r="A71" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>321</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="25" customHeight="1">
-      <c r="A72" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="E72" s="6">
+    <row r="72" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
+      <c r="A72" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
+      <c r="A73" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
+      <c r="A74" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
+      <c r="A75" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
+      <c r="A76" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
+      <c r="A77" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
+      <c r="A78" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
+      <c r="A79" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="E79" s="9">
         <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="25" customHeight="1">
-      <c r="A73" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="E73" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="25" customHeight="1">
-      <c r="A74" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="E74" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="25" customHeight="1">
-      <c r="A75" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="E75" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="25" customHeight="1">
-      <c r="A76" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E76" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="25" customHeight="1">
-      <c r="A77" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="E77" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="25" customHeight="1">
-      <c r="A78" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="E78" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="25" customHeight="1">
-      <c r="A79" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E79" s="6">
-        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="25" customHeight="1">
-      <c r="A80" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>339</v>
+      <c r="A80" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>328</v>
       </c>
       <c r="E80" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="25" customHeight="1">
-      <c r="A81" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>340</v>
+      <c r="A81" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="E81" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="25" customHeight="1">
-      <c r="A82" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>341</v>
+      <c r="A82" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="E82" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="25" customHeight="1">
-      <c r="A83" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>139</v>
+      <c r="A83" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>95</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>342</v>
+        <v>272</v>
       </c>
       <c r="E83" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="25" customHeight="1">
-      <c r="A84" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>140</v>
+      <c r="A84" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>343</v>
+        <v>273</v>
       </c>
       <c r="E84" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="25" customHeight="1">
-      <c r="A85" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>141</v>
+      <c r="A85" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>97</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>344</v>
+        <v>274</v>
       </c>
       <c r="E85" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="25" customHeight="1">
-      <c r="A86" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>142</v>
+      <c r="A86" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" s="25" t="s">
+        <v>98</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>345</v>
+        <v>275</v>
       </c>
       <c r="E86" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="25" customHeight="1">
-      <c r="A87" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>333</v>
+      <c r="A87" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="E87" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="25" customHeight="1">
-      <c r="A88" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>144</v>
+      <c r="A88" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>100</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>145</v>
+        <v>277</v>
       </c>
       <c r="E88" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="25" customHeight="1">
-      <c r="A89" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>147</v>
+      <c r="A89" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>278</v>
       </c>
       <c r="E89" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="25" customHeight="1">
-      <c r="A90" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>148</v>
+      <c r="A90" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="25" t="s">
+        <v>102</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>149</v>
+        <v>279</v>
       </c>
       <c r="E90" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="25" customHeight="1">
-      <c r="A91" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>150</v>
+      <c r="A91" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>151</v>
+        <v>280</v>
       </c>
       <c r="E91" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="25" customHeight="1">
-      <c r="A92" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>152</v>
+      <c r="A92" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>153</v>
+        <v>281</v>
       </c>
       <c r="E92" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="25" customHeight="1">
-      <c r="A93" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>154</v>
+      <c r="A93" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>155</v>
+        <v>282</v>
       </c>
       <c r="E93" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="25" customHeight="1">
-      <c r="A94" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>156</v>
+      <c r="A94" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="25" t="s">
+        <v>106</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>157</v>
+        <v>283</v>
       </c>
       <c r="E94" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="25" customHeight="1">
-      <c r="A95" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>159</v>
+      <c r="A95" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B95" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="E95" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="25" customHeight="1">
-      <c r="A96" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>160</v>
+      <c r="A96" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B96" s="25" t="s">
+        <v>108</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="E96" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="25" customHeight="1">
-      <c r="A97" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>163</v>
+      <c r="A97" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B97" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="E97" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="25" customHeight="1">
-      <c r="A98" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>164</v>
+      <c r="A98" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>112</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="E98" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="25" customHeight="1">
-      <c r="A99" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>166</v>
+      <c r="A99" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B99" s="25" t="s">
+        <v>114</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="E99" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="25" customHeight="1">
-      <c r="A100" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>168</v>
+      <c r="A100" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B100" s="25" t="s">
+        <v>116</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="E100" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="25" customHeight="1">
-      <c r="A101" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>170</v>
+      <c r="A101" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B101" s="25" t="s">
+        <v>118</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="E101" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="25" customHeight="1">
-      <c r="A102" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>172</v>
+      <c r="A102" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B102" s="25" t="s">
+        <v>120</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="E102" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="25" customHeight="1">
-      <c r="A103" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>175</v>
+      <c r="A103" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="E103" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="25" customHeight="1">
-      <c r="A104" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>176</v>
+      <c r="A104" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B104" s="25" t="s">
+        <v>124</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="E104" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="25" customHeight="1">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B105" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="C105" s="3" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="E105" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="25" customHeight="1">
-      <c r="A106" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>180</v>
+      <c r="A106" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B106" s="25" t="s">
+        <v>128</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="E106" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="25" customHeight="1">
-      <c r="A107" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>183</v>
+      <c r="A107" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B107" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="E107" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="25" customHeight="1">
-      <c r="A108" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>184</v>
+      <c r="A108" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B108" s="25" t="s">
+        <v>132</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="E108" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="25" customHeight="1">
-      <c r="A109" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>186</v>
+      <c r="A109" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B109" s="25" t="s">
+        <v>134</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="E109" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="25" customHeight="1">
-      <c r="A110" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>188</v>
+      <c r="A110" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B110" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="E110" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="25" customHeight="1">
-      <c r="A111" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>190</v>
+      <c r="A111" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B111" s="25" t="s">
+        <v>138</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="E111" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="25" customHeight="1">
-      <c r="A112" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>192</v>
+      <c r="A112" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B112" s="25" t="s">
+        <v>140</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>193</v>
+        <v>141</v>
       </c>
       <c r="E112" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="25" customHeight="1">
-      <c r="A113" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>194</v>
+      <c r="A113" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B113" s="25" t="s">
+        <v>142</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="E113" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="25" customHeight="1">
-      <c r="A114" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>197</v>
+      <c r="A114" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B114" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="E114" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="25" customHeight="1">
-      <c r="A115" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>198</v>
+      <c r="A115" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B115" s="25" t="s">
+        <v>146</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="E115" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="25" customHeight="1">
-      <c r="A116" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>201</v>
+      <c r="A116" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B116" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E116" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="25" customHeight="1">
-      <c r="A117" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E117" s="13">
+      <c r="A117" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B117" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E117" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="25" customHeight="1">
-      <c r="A118" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>205</v>
+      <c r="A118" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B118" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="E118" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="25" customHeight="1">
-      <c r="A119" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>207</v>
+      <c r="A119" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B119" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="E119" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="25" customHeight="1">
-      <c r="A120" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>209</v>
+      <c r="A120" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B120" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="E120" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="25" customHeight="1">
-      <c r="A121" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>211</v>
+      <c r="A121" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B121" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E121" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="25" customHeight="1">
-      <c r="A122" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>212</v>
+      <c r="A122" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B122" s="25" t="s">
+        <v>160</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="E122" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="25" customHeight="1">
-      <c r="A123" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>214</v>
+      <c r="A123" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B123" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="E123" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="25" customHeight="1">
-      <c r="A124" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>216</v>
+      <c r="A124" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B124" s="25" t="s">
+        <v>164</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="E124" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="25" customHeight="1">
-      <c r="A125" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>218</v>
+      <c r="A125" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B125" s="25" t="s">
+        <v>166</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E125" s="6">
+        <v>167</v>
+      </c>
+      <c r="E125" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="25" customHeight="1">
-      <c r="A126" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>220</v>
+      <c r="A126" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B126" s="25" t="s">
+        <v>168</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="E126" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="25" customHeight="1">
-      <c r="A127" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>222</v>
+      <c r="A127" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B127" s="25" t="s">
+        <v>170</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="E127" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="25" customHeight="1">
-      <c r="A128" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>224</v>
+      <c r="A128" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B128" s="25" t="s">
+        <v>172</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="E128" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="25" customHeight="1">
-      <c r="A129" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>226</v>
+      <c r="A129" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B129" s="25" t="s">
+        <v>174</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="E129" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="25" customHeight="1">
-      <c r="A130" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>228</v>
+      <c r="A130" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B130" s="25" t="s">
+        <v>176</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>227</v>
+        <v>177</v>
       </c>
       <c r="E130" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="25" customHeight="1">
-      <c r="A131" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>229</v>
+      <c r="A131" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B131" s="25" t="s">
+        <v>178</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>230</v>
+        <v>179</v>
       </c>
       <c r="E131" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="25" customHeight="1">
-      <c r="A132" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>231</v>
+      <c r="A132" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B132" s="25" t="s">
+        <v>180</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>232</v>
+        <v>181</v>
       </c>
       <c r="E132" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="25" customHeight="1">
-      <c r="A133" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>233</v>
+      <c r="A133" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B133" s="25" t="s">
+        <v>182</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>234</v>
+        <v>183</v>
       </c>
       <c r="E133" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="25" customHeight="1">
-      <c r="A134" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>235</v>
+      <c r="A134" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B134" s="25" t="s">
+        <v>184</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="E134" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="25" customHeight="1">
-      <c r="A135" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>237</v>
+      <c r="A135" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B135" s="25" t="s">
+        <v>186</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="E135" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="25" customHeight="1">
-      <c r="A136" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>240</v>
+      <c r="A136" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B136" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="E136" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="25" customHeight="1">
-      <c r="A137" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C137" s="12" t="s">
-        <v>242</v>
+      <c r="A137" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B137" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="E137" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="25" customHeight="1">
-      <c r="A138" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C138" s="12" t="s">
-        <v>244</v>
+      <c r="A138" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B138" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="E138" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="25" customHeight="1">
-      <c r="A139" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C139" s="12" t="s">
-        <v>246</v>
+      <c r="A139" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B139" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="E139" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="25" customHeight="1">
-      <c r="A140" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C140" s="12" t="s">
-        <v>248</v>
+      <c r="A140" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B140" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="E140" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="25" customHeight="1">
-      <c r="A141" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C141" s="12" t="s">
-        <v>250</v>
+      <c r="A141" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B141" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="E141" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="25" customHeight="1">
-      <c r="A142" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>252</v>
+      <c r="A142" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B142" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="E142" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="25" customHeight="1">
-      <c r="A143" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>255</v>
+      <c r="A143" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B143" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="E143" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="25" customHeight="1">
-      <c r="A144" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>255</v>
+      <c r="A144" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B144" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="E144" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="25" customHeight="1">
-      <c r="A145" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>255</v>
+      <c r="A145" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B145" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="E145" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="25" customHeight="1">
-      <c r="A146" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>255</v>
+      <c r="A146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B146" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="E146" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="25" customHeight="1">
-      <c r="A147" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>255</v>
+      <c r="A147" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B147" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>210</v>
       </c>
       <c r="E147" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="25" customHeight="1">
-      <c r="A148" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>255</v>
+      <c r="A148" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B148" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="E148" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="25" customHeight="1">
-      <c r="A149" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>255</v>
+      <c r="A149" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B149" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="E149" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="25" customHeight="1">
-      <c r="A150" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>262</v>
+      <c r="A150" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B150" s="25" t="s">
+        <v>215</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="E150" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="25" customHeight="1">
-      <c r="A151" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>263</v>
+      <c r="A151" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B151" s="26" t="s">
+        <v>329</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="E151" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="25" customHeight="1">
-      <c r="A152" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>265</v>
+      <c r="A152" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B152" s="26" t="s">
+        <v>330</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="E152" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="25" customHeight="1">
-      <c r="A153" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>266</v>
+      <c r="A153" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B153" s="31" t="s">
+        <v>331</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="E153" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="25" customHeight="1">
-      <c r="A154" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>267</v>
+      <c r="A154" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B154" s="29" t="s">
+        <v>332</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="E154" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="25" customHeight="1">
-      <c r="A155" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>268</v>
+      <c r="A155" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B155" s="29" t="s">
+        <v>333</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="E155" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="25" customHeight="1">
-      <c r="A156" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>269</v>
+      <c r="A156" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B156" s="29" t="s">
+        <v>334</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="E156" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="25" customHeight="1">
-      <c r="A157" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>270</v>
+      <c r="A157" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B157" s="29" t="s">
+        <v>335</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="E157" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="25" customHeight="1">
-      <c r="A158" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="B158" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="C158" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="D158" s="14" t="s">
-        <v>274</v>
+      <c r="A158" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B158" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="E158" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="38.5" customHeight="1">
-      <c r="A159" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="B159" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="C159" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="D159" s="14" t="s">
-        <v>274</v>
+    <row r="159" spans="1:5" ht="25" customHeight="1">
+      <c r="A159" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B159" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="E159" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="28" customHeight="1">
-      <c r="A160" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B160" s="16" t="s">
-        <v>275</v>
+    <row r="160" spans="1:5" ht="25" customHeight="1">
+      <c r="A160" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B160" s="25" t="s">
+        <v>219</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="E160" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="25" customHeight="1">
-      <c r="A161" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B161" s="16" t="s">
-        <v>277</v>
+      <c r="A161" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B161" s="29" t="s">
+        <v>338</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="E161" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="25" customHeight="1">
-      <c r="A162" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B162" s="16" t="s">
-        <v>278</v>
+      <c r="A162" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B162" s="29" t="s">
+        <v>339</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="E162" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="25" customHeight="1">
-      <c r="A163" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B163" s="16" t="s">
-        <v>279</v>
+      <c r="A163" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B163" s="29" t="s">
+        <v>340</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="E163" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="25" customHeight="1">
-      <c r="A164" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B164" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>282</v>
+      <c r="A164" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B164" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="E164" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="25" customHeight="1">
-      <c r="A165" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B165" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>282</v>
+      <c r="A165" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B165" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="E165" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="25" customHeight="1">
-      <c r="A166" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B166" s="16" t="s">
-        <v>284</v>
+      <c r="A166" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B166" s="25" t="s">
+        <v>221</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>285</v>
+        <v>220</v>
       </c>
       <c r="E166" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="25" customHeight="1">
-      <c r="A167" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B167" s="16" t="s">
-        <v>286</v>
+      <c r="A167" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B167" s="29" t="s">
+        <v>343</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>285</v>
+        <v>220</v>
       </c>
       <c r="E167" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="25" customHeight="1">
-      <c r="A168" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B168" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>288</v>
+    <row r="168" spans="1:5" ht="28" customHeight="1">
+      <c r="A168" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="B168" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="C168" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D168" s="14" t="s">
+        <v>224</v>
       </c>
       <c r="E168" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="25" customHeight="1">
-      <c r="A169" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B169" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>288</v>
+    <row r="169" spans="1:5" ht="28" customHeight="1">
+      <c r="A169" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="B169" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="C169" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D169" s="14" t="s">
+        <v>224</v>
       </c>
       <c r="E169" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="25" customHeight="1">
-      <c r="A170" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B170" s="16" t="s">
-        <v>290</v>
+    <row r="170" spans="1:5" ht="28" customHeight="1">
+      <c r="A170" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B170" s="34" t="s">
+        <v>346</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>291</v>
+        <v>225</v>
       </c>
       <c r="E170" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="25" customHeight="1">
-      <c r="A171" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B171" s="16" t="s">
-        <v>292</v>
+    <row r="171" spans="1:5" ht="28" customHeight="1">
+      <c r="A171" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B171" s="34" t="s">
+        <v>347</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>293</v>
+        <v>225</v>
       </c>
       <c r="E171" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="25" customHeight="1">
-      <c r="A172" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B172" s="16" t="s">
-        <v>294</v>
+    <row r="172" spans="1:5" ht="28" customHeight="1">
+      <c r="A172" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B172" s="34" t="s">
+        <v>226</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>293</v>
+        <v>225</v>
       </c>
       <c r="E172" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="25" customHeight="1">
-      <c r="A173" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B173" s="16" t="s">
-        <v>295</v>
+    <row r="173" spans="1:5" ht="28" customHeight="1">
+      <c r="A173" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B173" s="34" t="s">
+        <v>348</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>291</v>
+        <v>227</v>
       </c>
       <c r="E173" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="25" customHeight="1">
-      <c r="A174" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>297</v>
+    <row r="174" spans="1:5" ht="28" customHeight="1">
+      <c r="A174" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B174" s="34" t="s">
+        <v>349</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>298</v>
+        <v>364</v>
       </c>
       <c r="E174" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="25" customHeight="1">
-      <c r="A175" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>298</v>
+    <row r="175" spans="1:5" ht="28" customHeight="1">
+      <c r="A175" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B175" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="E175" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="25" customHeight="1">
-      <c r="A176" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>303</v>
+    <row r="176" spans="1:5" ht="28" customHeight="1">
+      <c r="A176" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B176" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="E176" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="25" customHeight="1">
-      <c r="A177" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>304</v>
+    <row r="177" spans="1:5" ht="28" customHeight="1">
+      <c r="A177" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B177" s="34" t="s">
+        <v>350</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>303</v>
+        <v>231</v>
       </c>
       <c r="E177" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="25" customHeight="1">
-      <c r="A178" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>305</v>
+    <row r="178" spans="1:5" ht="28" customHeight="1">
+      <c r="A178" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B178" s="34" t="s">
+        <v>351</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>303</v>
+        <v>231</v>
       </c>
       <c r="E178" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="25" customHeight="1">
-      <c r="A179" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>306</v>
+    <row r="179" spans="1:5" ht="28" customHeight="1">
+      <c r="A179" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B179" s="34" t="s">
+        <v>352</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>303</v>
+        <v>231</v>
       </c>
       <c r="E179" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="25" customHeight="1">
-      <c r="A180" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>303</v>
+    <row r="180" spans="1:5" ht="28" customHeight="1">
+      <c r="A180" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B180" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="E180" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="25" customHeight="1">
-      <c r="A181" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>303</v>
+    <row r="181" spans="1:5" ht="28" customHeight="1">
+      <c r="A181" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B181" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="E181" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="25" customHeight="1">
-      <c r="A182" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B182" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>310</v>
+    <row r="182" spans="1:5" ht="28" customHeight="1">
+      <c r="A182" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B182" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="E182" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="25" customHeight="1">
-      <c r="A183" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B183" s="11" t="s">
-        <v>311</v>
+    <row r="183" spans="1:5" ht="28" customHeight="1">
+      <c r="A183" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B183" s="34" t="s">
+        <v>356</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>312</v>
+        <v>233</v>
       </c>
       <c r="E183" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="36.5" customHeight="1">
-      <c r="A184" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B184" s="11" t="s">
-        <v>313</v>
+    <row r="184" spans="1:5" ht="28" customHeight="1">
+      <c r="A184" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B184" s="34" t="s">
+        <v>357</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>314</v>
+        <v>234</v>
       </c>
       <c r="E184" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="118" customHeight="1">
-      <c r="A185" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B185" s="11" t="s">
-        <v>315</v>
+    <row r="185" spans="1:5" ht="28" customHeight="1">
+      <c r="A185" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B185" s="34" t="s">
+        <v>358</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D185" s="3"/>
+        <v>234</v>
+      </c>
       <c r="E185" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="106" customHeight="1">
-      <c r="A186" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>317</v>
+    <row r="186" spans="1:5" ht="28" customHeight="1">
+      <c r="A186" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B186" s="34" t="s">
+        <v>359</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>303</v>
+        <v>234</v>
       </c>
       <c r="E186" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="28" customHeight="1">
+      <c r="A187" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B187" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E187" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="28" customHeight="1">
+      <c r="A188" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B188" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E188" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="28" customHeight="1">
+      <c r="A189" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B189" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E189" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="28" customHeight="1">
+      <c r="A190" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B190" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E190" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="25" customHeight="1">
+      <c r="A191" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E191" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="25" customHeight="1">
+      <c r="A192" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E192" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="25" customHeight="1">
+      <c r="A193" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B193" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E193" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="78.5" customHeight="1">
-      <c r="A187" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E187" s="6">
+    <row r="194" spans="1:5" ht="25" customHeight="1">
+      <c r="A194" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B194" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E194" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="60" customHeight="1">
-      <c r="A188" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E188" s="6">
+    <row r="195" spans="1:5" ht="25" customHeight="1">
+      <c r="A195" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B195" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E195" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:5" s="8" customFormat="1" ht="92" customHeight="1">
-      <c r="A189" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="B189" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="C189" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="D189" s="3"/>
-      <c r="E189" s="9">
+    <row r="196" spans="1:5" ht="25" customHeight="1">
+      <c r="A196" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B196" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E196" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="25" customHeight="1">
+      <c r="A197" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B197" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E197" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="25" customHeight="1">
+      <c r="A198" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B198" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E198" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="25" customHeight="1">
+      <c r="A199" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B199" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E199" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="25" customHeight="1">
+      <c r="A200" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B200" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E200" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="25" customHeight="1">
+      <c r="A201" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E201" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A190" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="B190" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="C190" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="D190" s="3"/>
-      <c r="E190" s="9">
+    <row r="202" spans="1:5" ht="25" customHeight="1">
+      <c r="A202" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B202" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D202" s="3"/>
+      <c r="E202" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A191" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="B191" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="C191" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="E191" s="20">
+    <row r="203" spans="1:5" ht="25" customHeight="1">
+      <c r="A203" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B203" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E203" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5" s="8" customFormat="1" ht="28" customHeight="1">
-      <c r="A192" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="B192" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="C192" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="E192" s="20">
+    <row r="204" spans="1:5" ht="25" customHeight="1">
+      <c r="A204" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B204" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E204" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A193" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="B193" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="C193" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="E193" s="22">
+    <row r="205" spans="1:5" ht="25" customHeight="1">
+      <c r="A205" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B205" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E205" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="25" customHeight="1">
+      <c r="A206" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B206" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E206" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="25" customHeight="1">
+      <c r="A207" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B207" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E207" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
+      <c r="A208" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B208" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C208" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D208" s="3"/>
+      <c r="E208" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A194" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="B194" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="C194" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="E194" s="22">
+    <row r="209" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
+      <c r="A209" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B209" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C209" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D209" s="3"/>
+      <c r="E209" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" s="8" customFormat="1" ht="80.5" customHeight="1">
-      <c r="A195" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="B195" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="C195" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="E195" s="22">
+    <row r="210" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
+      <c r="A210" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B210" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="C210" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="E210" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
-      <c r="A196" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="B196" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="C196" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="E196" s="22">
+    <row r="211" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
+      <c r="A211" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B211" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C211" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="E211" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="59" customHeight="1"/>
-    <row r="198" spans="1:5" ht="61.5" customHeight="1"/>
+    <row r="212" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
+      <c r="A212" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B212" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C212" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="E212" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
+      <c r="A213" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B213" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C213" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="E213" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
+      <c r="A214" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B214" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C214" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="E214" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1">
+      <c r="A215" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B215" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C215" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="E215" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="59" customHeight="1"/>
+    <row r="217" spans="1:5" ht="61.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
